--- a/GantExcel/未来創造展_ガントチャート/03_リソース.xlsx
+++ b/GantExcel/未来創造展_ガントチャート/03_リソース.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\SourceTree\NoOverTime\GantExcel\未来創造展_ガントチャート\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="17235" windowHeight="10545"/>
   </bookViews>
@@ -27,12 +32,12 @@
     <definedName name="担当者列">プロジェクト!$C$13</definedName>
     <definedName name="報告日">プロジェクト!$F$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="142">
   <si>
     <t>報告日：</t>
     <rPh sb="0" eb="2">
@@ -691,6 +696,106 @@
   <si>
     <t>着手遅れ</t>
   </si>
+  <si>
+    <t>ゲームメイン</t>
+  </si>
+  <si>
+    <t>数字○</t>
+  </si>
+  <si>
+    <t>×(記号)○</t>
+  </si>
+  <si>
+    <t>着弾サークル○</t>
+  </si>
+  <si>
+    <t>弾道軌跡○</t>
+  </si>
+  <si>
+    <t>緑のゲージ○</t>
+  </si>
+  <si>
+    <t>レーダーマップ○</t>
+  </si>
+  <si>
+    <t>レーダーアイコン○</t>
+  </si>
+  <si>
+    <t>リロードロゴ○</t>
+  </si>
+  <si>
+    <t>マップ外の背景○</t>
+  </si>
+  <si>
+    <t>チャームマーク○</t>
+  </si>
+  <si>
+    <t>FEVERのロゴ○</t>
+  </si>
+  <si>
+    <t>特殊観客(アイテム)○</t>
+  </si>
+  <si>
+    <t>時間○</t>
+  </si>
+  <si>
+    <t>中央のバー</t>
+  </si>
+  <si>
+    <t>タイトル</t>
+  </si>
+  <si>
+    <t>タイトルロゴ○</t>
+  </si>
+  <si>
+    <t>pressanykeyのロゴ○</t>
+  </si>
+  <si>
+    <t>エントリー</t>
+  </si>
+  <si>
+    <t>エントリー前のプレイヤーウィンドウ△</t>
+  </si>
+  <si>
+    <t>エントリー後のプレイヤーウィンドウ△</t>
+  </si>
+  <si>
+    <t>READYのロゴ△</t>
+  </si>
+  <si>
+    <t>Bボタン△</t>
+  </si>
+  <si>
+    <t>1POK,2POK,3POK,4POKロゴ△</t>
+  </si>
+  <si>
+    <t>エントリー背景△</t>
+  </si>
+  <si>
+    <t>リザルトロゴ△</t>
+  </si>
+  <si>
+    <t>リザルト背景△</t>
+  </si>
+  <si>
+    <t>順位ロゴ△</t>
+  </si>
+  <si>
+    <t>スコアウィンドウ△</t>
+  </si>
+  <si>
+    <t>1位ロゴの装飾</t>
+  </si>
+  <si>
+    <t>11/3段階のwikiにある2Dリソース仕様</t>
+    <rPh sb="4" eb="6">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1332,6 +1437,15 @@
     <xf numFmtId="177" fontId="5" fillId="2" borderId="25" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,15 +1476,6 @@
     <xf numFmtId="9" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="ハイパーリンク" xfId="4" builtinId="8"/>
@@ -1379,7 +1484,7 @@
     <cellStyle name="標準_TimeLine" xfId="1"/>
     <cellStyle name="標準_静岡3S019600-管理-003【関西ホスト移設スケジュール】 (version 1)" xfId="3"/>
   </cellStyles>
-  <dxfs count="508">
+  <dxfs count="509">
     <dxf>
       <fill>
         <patternFill>
@@ -4933,6 +5038,13 @@
       <fill>
         <patternFill>
           <bgColor indexed="14"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="27"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16065,7 +16177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -16107,7 +16219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16142,7 +16254,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -16354,12 +16466,12 @@
   <sheetPr codeName="BaseSheet1"/>
   <dimension ref="A1:DE180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="8" ySplit="13" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane xSplit="8" ySplit="13" topLeftCell="I14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -16383,11 +16495,11 @@
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="63">
+      <c r="F1" s="66">
         <v>42670</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="4">
         <f>IF(I3&lt;&gt;DATE(YEAR(I3),MONTH(I3)+1,1)-1,MONTH(I3),"")</f>
         <v>10</v>
@@ -16803,11 +16915,11 @@
       <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="68">
         <v>42670.505046296297</v>
       </c>
-      <c r="G2" s="66"/>
-      <c r="H2" s="67"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
@@ -16969,28 +17081,28 @@
       </c>
     </row>
     <row r="3" spans="1:109" ht="11.25" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="65" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="9">
@@ -17398,14 +17510,14 @@
       </c>
     </row>
     <row r="4" spans="1:109" ht="11.25" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="62"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="65"/>
       <c r="I4" s="11">
         <f>I3</f>
         <v>42663</v>
@@ -17811,7 +17923,7 @@
         <v>42763</v>
       </c>
     </row>
-    <row r="5" spans="1:109" ht="39" customHeight="1">
+    <row r="5" spans="1:109" ht="22.5" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -17922,7 +18034,7 @@
       <c r="DD5" s="21"/>
       <c r="DE5" s="21"/>
     </row>
-    <row r="6" spans="1:109" ht="39" customHeight="1">
+    <row r="6" spans="1:109" ht="22.5" customHeight="1">
       <c r="A6" s="59"/>
       <c r="B6" s="22" t="s">
         <v>42</v>
@@ -18035,7 +18147,7 @@
       <c r="DD6" s="61"/>
       <c r="DE6" s="61"/>
     </row>
-    <row r="7" spans="1:109" ht="39" customHeight="1">
+    <row r="7" spans="1:109" ht="22.5" customHeight="1">
       <c r="A7" s="59"/>
       <c r="B7" s="58" t="s">
         <v>43</v>
@@ -18148,7 +18260,7 @@
       <c r="DD7" s="61"/>
       <c r="DE7" s="61"/>
     </row>
-    <row r="8" spans="1:109" ht="39" customHeight="1">
+    <row r="8" spans="1:109" ht="22.5" customHeight="1">
       <c r="A8" s="59"/>
       <c r="B8" s="22" t="s">
         <v>109</v>
@@ -18261,7 +18373,7 @@
       <c r="DD8" s="61"/>
       <c r="DE8" s="61"/>
     </row>
-    <row r="9" spans="1:109" ht="39" customHeight="1">
+    <row r="9" spans="1:109" ht="22.5" customHeight="1">
       <c r="A9" s="59"/>
       <c r="B9" s="58" t="s">
         <v>108</v>
@@ -18374,7 +18486,7 @@
       <c r="DD9" s="61"/>
       <c r="DE9" s="61"/>
     </row>
-    <row r="10" spans="1:109" ht="39" customHeight="1">
+    <row r="10" spans="1:109" ht="22.5" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="57" t="s">
         <v>41</v>
@@ -18487,7 +18599,7 @@
       <c r="DD10" s="24"/>
       <c r="DE10" s="24"/>
     </row>
-    <row r="11" spans="1:109" ht="39" customHeight="1">
+    <row r="11" spans="1:109" ht="22.5" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="22" t="s">
         <v>40</v>
@@ -18600,7 +18712,7 @@
       <c r="DD11" s="24"/>
       <c r="DE11" s="24"/>
     </row>
-    <row r="12" spans="1:109" ht="39" customHeight="1">
+    <row r="12" spans="1:109" ht="22.5" customHeight="1">
       <c r="A12" s="42"/>
       <c r="B12" s="43"/>
       <c r="C12" s="42"/>
@@ -21705,7 +21817,7 @@
     </row>
     <row r="36" spans="1:109" ht="27" customHeight="1">
       <c r="A36" s="15"/>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="62" t="s">
         <v>66</v>
       </c>
       <c r="C36" s="15"/>
@@ -21831,7 +21943,7 @@
     </row>
     <row r="37" spans="1:109" ht="27" customHeight="1">
       <c r="A37" s="15"/>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="62" t="s">
         <v>67</v>
       </c>
       <c r="C37" s="15"/>
@@ -21957,7 +22069,7 @@
     </row>
     <row r="38" spans="1:109" ht="27" customHeight="1">
       <c r="A38" s="15"/>
-      <c r="B38" s="72" t="s">
+      <c r="B38" s="62" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="15"/>
@@ -22083,7 +22195,7 @@
     </row>
     <row r="39" spans="1:109" ht="27" customHeight="1">
       <c r="A39" s="15"/>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="62" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="15"/>
@@ -22209,7 +22321,7 @@
     </row>
     <row r="40" spans="1:109" ht="27" customHeight="1">
       <c r="A40" s="15"/>
-      <c r="B40" s="72" t="s">
+      <c r="B40" s="62" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="15"/>
@@ -22335,7 +22447,7 @@
     </row>
     <row r="41" spans="1:109" ht="27" customHeight="1">
       <c r="A41" s="15"/>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="62" t="s">
         <v>71</v>
       </c>
       <c r="C41" s="15"/>
@@ -22461,7 +22573,7 @@
     </row>
     <row r="42" spans="1:109" ht="27" customHeight="1">
       <c r="A42" s="15"/>
-      <c r="B42" s="73" t="s">
+      <c r="B42" s="63" t="s">
         <v>75</v>
       </c>
       <c r="C42" s="15"/>
@@ -22585,7 +22697,7 @@
     </row>
     <row r="43" spans="1:109" ht="27" customHeight="1">
       <c r="A43" s="15"/>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="64" t="s">
         <v>73</v>
       </c>
       <c r="C43" s="15"/>
@@ -22709,7 +22821,7 @@
     </row>
     <row r="44" spans="1:109" ht="27" customHeight="1">
       <c r="A44" s="15"/>
-      <c r="B44" s="73" t="s">
+      <c r="B44" s="63" t="s">
         <v>77</v>
       </c>
       <c r="C44" s="15"/>
@@ -22833,7 +22945,7 @@
     </row>
     <row r="45" spans="1:109" ht="27" customHeight="1">
       <c r="A45" s="15"/>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="64" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="15"/>
@@ -22957,7 +23069,7 @@
     </row>
     <row r="46" spans="1:109" ht="27" customHeight="1">
       <c r="A46" s="15"/>
-      <c r="B46" s="73" t="s">
+      <c r="B46" s="63" t="s">
         <v>76</v>
       </c>
       <c r="C46" s="15"/>
@@ -23081,7 +23193,7 @@
     </row>
     <row r="47" spans="1:109" ht="27" customHeight="1">
       <c r="A47" s="15"/>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="64" t="s">
         <v>78</v>
       </c>
       <c r="C47" s="15"/>
@@ -23205,7 +23317,7 @@
     </row>
     <row r="48" spans="1:109" ht="27" customHeight="1">
       <c r="A48" s="15"/>
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="63" t="s">
         <v>72</v>
       </c>
       <c r="C48" s="15"/>
@@ -23961,7 +24073,7 @@
     </row>
     <row r="54" spans="1:109" ht="27" customHeight="1">
       <c r="A54" s="15"/>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="62" t="s">
         <v>84</v>
       </c>
       <c r="C54" s="15"/>
@@ -24087,7 +24199,7 @@
     </row>
     <row r="55" spans="1:109" ht="27" customHeight="1">
       <c r="A55" s="15"/>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="62" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="15"/>
@@ -24213,7 +24325,7 @@
     </row>
     <row r="56" spans="1:109" ht="27" customHeight="1">
       <c r="A56" s="15"/>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="62" t="s">
         <v>86</v>
       </c>
       <c r="C56" s="15"/>
@@ -24339,7 +24451,7 @@
     </row>
     <row r="57" spans="1:109" ht="27" customHeight="1">
       <c r="A57" s="15"/>
-      <c r="B57" s="72" t="s">
+      <c r="B57" s="62" t="s">
         <v>87</v>
       </c>
       <c r="C57" s="15"/>
@@ -24849,7 +24961,7 @@
     </row>
     <row r="61" spans="1:109" ht="27" customHeight="1">
       <c r="A61" s="15"/>
-      <c r="B61" s="72" t="s">
+      <c r="B61" s="62" t="s">
         <v>91</v>
       </c>
       <c r="C61" s="15"/>
@@ -24975,7 +25087,7 @@
     </row>
     <row r="62" spans="1:109" ht="27" customHeight="1">
       <c r="A62" s="15"/>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="62" t="s">
         <v>92</v>
       </c>
       <c r="C62" s="15"/>
@@ -25101,7 +25213,7 @@
     </row>
     <row r="63" spans="1:109" ht="27" customHeight="1">
       <c r="A63" s="15"/>
-      <c r="B63" s="72" t="s">
+      <c r="B63" s="62" t="s">
         <v>93</v>
       </c>
       <c r="C63" s="15"/>
@@ -25227,7 +25339,7 @@
     </row>
     <row r="64" spans="1:109" ht="27" customHeight="1">
       <c r="A64" s="15"/>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="62" t="s">
         <v>94</v>
       </c>
       <c r="C64" s="15"/>
@@ -25353,7 +25465,7 @@
     </row>
     <row r="65" spans="1:109" ht="27" customHeight="1">
       <c r="A65" s="15"/>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="62" t="s">
         <v>95</v>
       </c>
       <c r="C65" s="15"/>
@@ -25477,7 +25589,7 @@
     </row>
     <row r="66" spans="1:109" ht="27" customHeight="1">
       <c r="A66" s="15"/>
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="63" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="15"/>
@@ -25601,7 +25713,7 @@
     </row>
     <row r="67" spans="1:109" ht="27" customHeight="1">
       <c r="A67" s="15"/>
-      <c r="B67" s="73" t="s">
+      <c r="B67" s="63" t="s">
         <v>97</v>
       </c>
       <c r="C67" s="15"/>
@@ -25725,7 +25837,7 @@
     </row>
     <row r="68" spans="1:109" ht="27" customHeight="1">
       <c r="A68" s="15"/>
-      <c r="B68" s="73" t="s">
+      <c r="B68" s="63" t="s">
         <v>98</v>
       </c>
       <c r="C68" s="15"/>
@@ -25849,7 +25961,7 @@
     </row>
     <row r="69" spans="1:109" ht="27" customHeight="1">
       <c r="A69" s="15"/>
-      <c r="B69" s="73" t="s">
+      <c r="B69" s="63" t="s">
         <v>99</v>
       </c>
       <c r="C69" s="15"/>
@@ -25973,7 +26085,7 @@
     </row>
     <row r="70" spans="1:109" ht="27" customHeight="1">
       <c r="A70" s="15"/>
-      <c r="B70" s="72" t="s">
+      <c r="B70" s="62" t="s">
         <v>100</v>
       </c>
       <c r="C70" s="15"/>
@@ -26099,7 +26211,7 @@
     </row>
     <row r="71" spans="1:109" ht="27" customHeight="1">
       <c r="A71" s="15"/>
-      <c r="B71" s="72" t="s">
+      <c r="B71" s="62" t="s">
         <v>101</v>
       </c>
       <c r="C71" s="15"/>
@@ -26225,7 +26337,7 @@
     </row>
     <row r="72" spans="1:109" ht="27" customHeight="1">
       <c r="A72" s="15"/>
-      <c r="B72" s="72" t="s">
+      <c r="B72" s="62" t="s">
         <v>102</v>
       </c>
       <c r="C72" s="15"/>
@@ -26475,7 +26587,7 @@
     </row>
     <row r="74" spans="1:109" ht="27" customHeight="1">
       <c r="A74" s="15"/>
-      <c r="B74" s="72" t="s">
+      <c r="B74" s="62" t="s">
         <v>103</v>
       </c>
       <c r="C74" s="15"/>
@@ -26599,7 +26711,7 @@
     </row>
     <row r="75" spans="1:109" ht="27" customHeight="1">
       <c r="A75" s="15"/>
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="62" t="s">
         <v>104</v>
       </c>
       <c r="C75" s="15"/>
@@ -26723,7 +26835,7 @@
     </row>
     <row r="76" spans="1:109" ht="27" customHeight="1">
       <c r="A76" s="15"/>
-      <c r="B76" s="72" t="s">
+      <c r="B76" s="62" t="s">
         <v>105</v>
       </c>
       <c r="C76" s="15"/>
@@ -30615,7 +30727,9 @@
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="B109" s="22"/>
+      <c r="B109" s="22" t="s">
+        <v>141</v>
+      </c>
       <c r="C109" s="15"/>
       <c r="D109" s="16"/>
       <c r="E109" s="17"/>
@@ -30729,7 +30843,9 @@
         <f t="shared" si="9"/>
         <v>97</v>
       </c>
-      <c r="B110" s="22"/>
+      <c r="B110" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="C110" s="15"/>
       <c r="D110" s="16"/>
       <c r="E110" s="17"/>
@@ -30843,7 +30959,9 @@
         <f t="shared" si="9"/>
         <v>98</v>
       </c>
-      <c r="B111" s="22"/>
+      <c r="B111" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="C111" s="15"/>
       <c r="D111" s="16"/>
       <c r="E111" s="17"/>
@@ -30957,7 +31075,9 @@
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="B112" s="22"/>
+      <c r="B112" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="C112" s="15"/>
       <c r="D112" s="16"/>
       <c r="E112" s="17"/>
@@ -31071,7 +31191,9 @@
         <f t="shared" ref="A113:A144" si="12">ROW()-ROW(№列)</f>
         <v>100</v>
       </c>
-      <c r="B113" s="22"/>
+      <c r="B113" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="C113" s="15"/>
       <c r="D113" s="16"/>
       <c r="E113" s="17"/>
@@ -31185,7 +31307,9 @@
         <f t="shared" si="12"/>
         <v>101</v>
       </c>
-      <c r="B114" s="22"/>
+      <c r="B114" s="22" t="s">
+        <v>115</v>
+      </c>
       <c r="C114" s="15"/>
       <c r="D114" s="16"/>
       <c r="E114" s="17"/>
@@ -31299,7 +31423,9 @@
         <f t="shared" si="12"/>
         <v>102</v>
       </c>
-      <c r="B115" s="22"/>
+      <c r="B115" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="C115" s="15"/>
       <c r="D115" s="16"/>
       <c r="E115" s="17"/>
@@ -31413,7 +31539,9 @@
         <f t="shared" si="12"/>
         <v>103</v>
       </c>
-      <c r="B116" s="22"/>
+      <c r="B116" s="22" t="s">
+        <v>117</v>
+      </c>
       <c r="C116" s="15"/>
       <c r="D116" s="16"/>
       <c r="E116" s="17"/>
@@ -31527,7 +31655,9 @@
         <f t="shared" si="12"/>
         <v>104</v>
       </c>
-      <c r="B117" s="22"/>
+      <c r="B117" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="C117" s="15"/>
       <c r="D117" s="16"/>
       <c r="E117" s="17"/>
@@ -31641,7 +31771,9 @@
         <f t="shared" si="12"/>
         <v>105</v>
       </c>
-      <c r="B118" s="22"/>
+      <c r="B118" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="C118" s="15"/>
       <c r="D118" s="16"/>
       <c r="E118" s="17"/>
@@ -31755,7 +31887,9 @@
         <f t="shared" si="12"/>
         <v>106</v>
       </c>
-      <c r="B119" s="22"/>
+      <c r="B119" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="C119" s="15"/>
       <c r="D119" s="16"/>
       <c r="E119" s="17"/>
@@ -31869,7 +32003,9 @@
         <f t="shared" si="12"/>
         <v>107</v>
       </c>
-      <c r="B120" s="22"/>
+      <c r="B120" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="C120" s="15"/>
       <c r="D120" s="16"/>
       <c r="E120" s="17"/>
@@ -31983,7 +32119,9 @@
         <f t="shared" si="12"/>
         <v>108</v>
       </c>
-      <c r="B121" s="22"/>
+      <c r="B121" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="C121" s="15"/>
       <c r="D121" s="16"/>
       <c r="E121" s="17"/>
@@ -32097,7 +32235,9 @@
         <f t="shared" si="12"/>
         <v>109</v>
       </c>
-      <c r="B122" s="22"/>
+      <c r="B122" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="C122" s="15"/>
       <c r="D122" s="16"/>
       <c r="E122" s="17"/>
@@ -32211,7 +32351,9 @@
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
-      <c r="B123" s="22"/>
+      <c r="B123" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="C123" s="15"/>
       <c r="D123" s="16"/>
       <c r="E123" s="17"/>
@@ -32325,7 +32467,9 @@
         <f t="shared" si="12"/>
         <v>111</v>
       </c>
-      <c r="B124" s="22"/>
+      <c r="B124" s="22" t="s">
+        <v>125</v>
+      </c>
       <c r="C124" s="15"/>
       <c r="D124" s="16"/>
       <c r="E124" s="17"/>
@@ -32439,7 +32583,9 @@
         <f t="shared" si="12"/>
         <v>112</v>
       </c>
-      <c r="B125" s="22"/>
+      <c r="B125" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="C125" s="15"/>
       <c r="D125" s="16"/>
       <c r="E125" s="17"/>
@@ -32553,7 +32699,9 @@
         <f t="shared" si="12"/>
         <v>113</v>
       </c>
-      <c r="B126" s="22"/>
+      <c r="B126" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="C126" s="15"/>
       <c r="D126" s="16"/>
       <c r="E126" s="17"/>
@@ -32667,7 +32815,9 @@
         <f t="shared" si="12"/>
         <v>114</v>
       </c>
-      <c r="B127" s="22"/>
+      <c r="B127" s="22" t="s">
+        <v>128</v>
+      </c>
       <c r="C127" s="15"/>
       <c r="D127" s="16"/>
       <c r="E127" s="17"/>
@@ -32781,7 +32931,9 @@
         <f t="shared" si="12"/>
         <v>115</v>
       </c>
-      <c r="B128" s="22"/>
+      <c r="B128" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="C128" s="15"/>
       <c r="D128" s="16"/>
       <c r="E128" s="17"/>
@@ -32895,7 +33047,9 @@
         <f t="shared" si="12"/>
         <v>116</v>
       </c>
-      <c r="B129" s="22"/>
+      <c r="B129" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="C129" s="15"/>
       <c r="D129" s="16"/>
       <c r="E129" s="17"/>
@@ -33009,7 +33163,9 @@
         <f t="shared" si="12"/>
         <v>117</v>
       </c>
-      <c r="B130" s="22"/>
+      <c r="B130" s="22" t="s">
+        <v>131</v>
+      </c>
       <c r="C130" s="15"/>
       <c r="D130" s="16"/>
       <c r="E130" s="17"/>
@@ -33123,7 +33279,9 @@
         <f t="shared" si="12"/>
         <v>118</v>
       </c>
-      <c r="B131" s="22"/>
+      <c r="B131" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="C131" s="15"/>
       <c r="D131" s="16"/>
       <c r="E131" s="17"/>
@@ -33237,7 +33395,9 @@
         <f t="shared" si="12"/>
         <v>119</v>
       </c>
-      <c r="B132" s="22"/>
+      <c r="B132" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="C132" s="15"/>
       <c r="D132" s="16"/>
       <c r="E132" s="17"/>
@@ -33351,7 +33511,9 @@
         <f t="shared" si="12"/>
         <v>120</v>
       </c>
-      <c r="B133" s="22"/>
+      <c r="B133" s="22" t="s">
+        <v>134</v>
+      </c>
       <c r="C133" s="15"/>
       <c r="D133" s="16"/>
       <c r="E133" s="17"/>
@@ -33465,7 +33627,9 @@
         <f t="shared" si="12"/>
         <v>121</v>
       </c>
-      <c r="B134" s="22"/>
+      <c r="B134" s="22" t="s">
+        <v>135</v>
+      </c>
       <c r="C134" s="15"/>
       <c r="D134" s="16"/>
       <c r="E134" s="17"/>
@@ -33579,7 +33743,9 @@
         <f t="shared" si="12"/>
         <v>122</v>
       </c>
-      <c r="B135" s="22"/>
+      <c r="B135" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="C135" s="15"/>
       <c r="D135" s="16"/>
       <c r="E135" s="17"/>
@@ -33693,7 +33859,9 @@
         <f t="shared" si="12"/>
         <v>123</v>
       </c>
-      <c r="B136" s="22"/>
+      <c r="B136" s="22" t="s">
+        <v>136</v>
+      </c>
       <c r="C136" s="15"/>
       <c r="D136" s="16"/>
       <c r="E136" s="17"/>
@@ -33807,7 +33975,9 @@
         <f t="shared" si="12"/>
         <v>124</v>
       </c>
-      <c r="B137" s="22"/>
+      <c r="B137" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="C137" s="15"/>
       <c r="D137" s="16"/>
       <c r="E137" s="17"/>
@@ -33921,7 +34091,9 @@
         <f t="shared" si="12"/>
         <v>125</v>
       </c>
-      <c r="B138" s="22"/>
+      <c r="B138" s="22" t="s">
+        <v>138</v>
+      </c>
       <c r="C138" s="15"/>
       <c r="D138" s="16"/>
       <c r="E138" s="17"/>
@@ -34035,7 +34207,9 @@
         <f t="shared" si="12"/>
         <v>126</v>
       </c>
-      <c r="B139" s="22"/>
+      <c r="B139" s="22" t="s">
+        <v>139</v>
+      </c>
       <c r="C139" s="15"/>
       <c r="D139" s="16"/>
       <c r="E139" s="17"/>
@@ -34149,7 +34323,9 @@
         <f t="shared" si="12"/>
         <v>127</v>
       </c>
-      <c r="B140" s="22"/>
+      <c r="B140" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="C140" s="15"/>
       <c r="D140" s="16"/>
       <c r="E140" s="17"/>
@@ -34263,7 +34439,9 @@
         <f t="shared" si="12"/>
         <v>128</v>
       </c>
-      <c r="B141" s="22"/>
+      <c r="B141" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="C141" s="15"/>
       <c r="D141" s="16"/>
       <c r="E141" s="17"/>
@@ -38834,8 +39012,8 @@
     <mergeCell ref="G3:G4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <conditionalFormatting sqref="A5:H5 A14:H14 A15:A16 A10:H12 A6:A9 C6:H9 A107:H180 A17:B76 C16:C76 A77:C106 E17:H106">
-    <cfRule type="expression" dxfId="0" priority="802" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:H5 A14:H14 A15:A16 A10:H12 A6:A9 C6:H9 A17:B76 C16:C76 A77:C106 E17:H106 A107:H180">
+    <cfRule type="expression" dxfId="508" priority="802" stopIfTrue="1">
       <formula>MOD(ROW(),2)</formula>
     </cfRule>
   </conditionalFormatting>
